--- a/Users.xlsx
+++ b/Users.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>test</t>
   </si>
@@ -98,6 +98,24 @@
   </si>
   <si>
     <t>fsg</t>
+  </si>
+  <si>
+    <t>fadi</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>oasd</t>
+  </si>
+  <si>
+    <t>aoiscv</t>
+  </si>
+  <si>
+    <t>ioasc</t>
+  </si>
+  <si>
+    <t>ohiadv</t>
   </si>
 </sst>
 </file>
@@ -451,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -584,6 +602,29 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>test</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>ohiadv</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -625,6 +628,29 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0434D9-F04B-44E5-B957-EABDC411F493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85C18D4-6D2F-4692-94B2-FB4622079525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="825" windowWidth="16200" windowHeight="9848" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="25388" yWindow="-600" windowWidth="16200" windowHeight="9848" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,101 +35,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Aw</t>
-  </si>
-  <si>
-    <t>test3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>ssdfsd</t>
+  </si>
+  <si>
+    <t>abdalla@gmail.com</t>
+  </si>
+  <si>
+    <t>awd</t>
   </si>
   <si>
     <t>asd</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>sasdg</t>
-  </si>
-  <si>
-    <t>fdhd</t>
-  </si>
-  <si>
-    <t>jhg</t>
-  </si>
-  <si>
-    <t>hgj</t>
-  </si>
-  <si>
-    <t>fhj</t>
-  </si>
-  <si>
-    <t>hfj</t>
-  </si>
-  <si>
-    <t>gj</t>
-  </si>
-  <si>
-    <t>gfj</t>
-  </si>
-  <si>
-    <t>jkl</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
-  <si>
-    <t>sdfg</t>
-  </si>
-  <si>
-    <t>sfg</t>
-  </si>
-  <si>
-    <t>dfg</t>
-  </si>
-  <si>
-    <t>fsg</t>
-  </si>
-  <si>
-    <t>fadi</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>oasd</t>
-  </si>
-  <si>
-    <t>aoiscv</t>
-  </si>
-  <si>
-    <t>ioasc</t>
-  </si>
-  <si>
-    <t>ohiadv</t>
-  </si>
-  <si>
-    <t/>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>ewwff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
@@ -153,13 +101,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,186 +423,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>207527979</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>23</v>
+      </c>
+      <c r="F1">
+        <v>70</v>
+      </c>
+      <c r="G1">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>12213</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{48792CEF-C67F-4AAD-8A32-BB43050F1A06}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97252\Desktop\Medical-Diagnosis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85C18D4-6D2F-4692-94B2-FB4622079525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60508B6E-43F9-4BCF-8DA6-9CFF8425C854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25388" yWindow="-600" windowWidth="16200" windowHeight="9848" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>firstname</t>
   </si>
@@ -49,16 +49,13 @@
     <t>abdalla@gmail.com</t>
   </si>
   <si>
-    <t>awd</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>ewwff</t>
+    <t>fadi</t>
+  </si>
+  <si>
+    <t>badarni</t>
+  </si>
+  <si>
+    <t>fadybd1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -426,15 +423,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>207527979</v>
       </c>
@@ -460,35 +457,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>12213</v>
-      </c>
-      <c r="B2" t="s">
+        <v>209315647</v>
+      </c>
+      <c r="B2">
+        <v>524183083</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2">
+        <v>184</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H1" r:id="rId1" xr:uid="{48792CEF-C67F-4AAD-8A32-BB43050F1A06}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{0389B895-C066-4600-9489-3FFD1BFA0E45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97252\Desktop\Medical-Diagnosis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis-fadi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60508B6E-43F9-4BCF-8DA6-9CFF8425C854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65511A35-10B6-4626-9142-56EDB10087F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="12795" yWindow="4440" windowWidth="2220" windowHeight="3780" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>firstname</t>
   </si>
@@ -56,12 +56,55 @@
   </si>
   <si>
     <t>fadybd1@gmail.com</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>qweqweer</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>sdgfsdg</t>
+  </si>
+  <si>
+    <t>asdfghasdfgh</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>dasf</t>
+  </si>
+  <si>
+    <t>sdfsddasg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,73 +463,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="18.3984375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>207527979</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E1">
-        <v>23</v>
-      </c>
-      <c r="F1">
-        <v>70</v>
-      </c>
-      <c r="G1">
-        <v>176</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F2">
+        <v>586535522</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>209315647</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>524183083</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>82</v>
-      </c>
-      <c r="G2">
-        <v>184</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F3">
+        <v>123123112</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>123456789</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.23456787E8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.23456789E9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H1" r:id="rId1" xr:uid="{48792CEF-C67F-4AAD-8A32-BB43050F1A06}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{0389B895-C066-4600-9489-3FFD1BFA0E45}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{6B61DFF4-B3CD-4DA8-B084-DC939BBF8C16}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{F79C6A8D-9558-4119-82E1-E21319E761FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97252\Desktop\Medical-Diagnosis\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>firstname</t>
   </si>
@@ -56,12 +56,16 @@
   </si>
   <si>
     <t>fadybd1@gmail.com</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
@@ -428,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -481,6 +485,84 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>firstname</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>sdfsddasg</t>
+  </si>
+  <si>
+    <t>iamnumber10</t>
+  </si>
+  <si>
+    <t>hamode</t>
+  </si>
+  <si>
+    <t>hamode@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -463,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -578,6 +587,26 @@
         <v>1.23456789E9</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.9208154E7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.48177167E8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{6B61DFF4-B3CD-4DA8-B084-DC939BBF8C16}"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>firstname</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>hamode@gmail.com</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -607,6 +613,26 @@
         <v>5.48177167E8</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{6B61DFF4-B3CD-4DA8-B084-DC939BBF8C16}"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis-fadi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65511A35-10B6-4626-9142-56EDB10087F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89536B5A-A706-498C-A114-0F1F5EFB5EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12795" yWindow="4440" windowWidth="2220" windowHeight="3780" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="21503" yWindow="-2858" windowWidth="28994" windowHeight="16396" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>firstname</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
     <t>qweqweer</t>
   </si>
   <si>
@@ -112,14 +109,25 @@
     <t/>
   </si>
   <si>
-    <t>ss</t>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>123sd</t>
+  </si>
+  <si>
+    <t>sfsefvw</t>
+  </si>
+  <si>
+    <t>werbtrh</t>
+  </si>
+  <si>
+    <t>gfhfg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,14 +489,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="18.3984375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.73046875"/>
+    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -508,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -527,8 +535,8 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>586535522</v>
+      <c r="F2" t="s">
+        <v>25</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -548,8 +556,8 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>123123112</v>
+      <c r="F3" t="s">
+        <v>26</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -558,79 +566,73 @@
         <v>123456789</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>123456787</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
-        <v>1234567890</v>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.23456787E8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>29208154</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="n">
-        <v>1.23456789E9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2.9208154E7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.48177167E8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97252\Desktop\Medical-Diagnosis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89536B5A-A706-498C-A114-0F1F5EFB5EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959F0B40-381A-4748-92A6-6AE3C938CA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21503" yWindow="-2858" windowWidth="28994" windowHeight="16396" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>firstname</t>
   </si>
@@ -106,9 +106,6 @@
     <t>hamode@gmail.com</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -122,12 +119,28 @@
   </si>
   <si>
     <t>gfhfg</t>
+  </si>
+  <si>
+    <t>test123@</t>
+  </si>
+  <si>
+    <t>taylor</t>
+  </si>
+  <si>
+    <t>swift</t>
+  </si>
+  <si>
+    <t>taylor@gmail.com</t>
+  </si>
+  <si>
+    <t>taylorrr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -489,17 +502,17 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="18.44140625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -516,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>207527979</v>
       </c>
@@ -536,11 +549,11 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>209315647</v>
       </c>
@@ -557,11 +570,11 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>123456789</v>
       </c>
@@ -578,10 +591,10 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>123456787</v>
       </c>
@@ -598,10 +611,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>29208154</v>
       </c>
@@ -618,21 +631,27 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.23123123E8</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97252\Desktop\Medical-Diagnosis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959F0B40-381A-4748-92A6-6AE3C938CA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F540CB93-6F6F-493C-9118-2A0361663AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="29325" yWindow="-2715" windowWidth="16200" windowHeight="9848" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -140,7 +140,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,17 +501,17 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="18.44140625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.77734375"/>
+    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.46484375" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -532,7 +531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>207527979</v>
       </c>
@@ -553,7 +552,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>209315647</v>
       </c>
@@ -574,7 +573,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>123456789</v>
       </c>
@@ -594,7 +593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>123456787</v>
       </c>
@@ -614,7 +613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>29208154</v>
       </c>
@@ -634,9 +633,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1.23123123E8</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>123123123</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis_1\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>firstname</t>
   </si>
@@ -134,12 +134,22 @@
   </si>
   <si>
     <t>taylorrr</t>
+  </si>
+  <si>
+    <t>moh</t>
+  </si>
+  <si>
+    <t>moh@gmail.com</t>
+  </si>
+  <si>
+    <t>moha12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -506,9 +516,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.46484375" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="18.46484375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -651,6 +661,26 @@
       </c>
       <c r="F7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3.48774647E8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abada\IdeaProjects\Medical-Diagnosis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F540CB93-6F6F-493C-9118-2A0361663AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101AF69E-ABE7-45B9-8869-865A41D839A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29325" yWindow="-2715" windowWidth="16200" windowHeight="9848" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
+    <workbookView xWindow="2003" yWindow="3443" windowWidth="16200" windowHeight="10057" xr2:uid="{D2BC487A-35A7-4E1F-8D4A-67F57BDA3325}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>firstname</t>
   </si>
@@ -43,9 +43,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>ssdfsd</t>
-  </si>
-  <si>
     <t>abdalla@gmail.com</t>
   </si>
   <si>
@@ -73,83 +70,22 @@
     <t>Email</t>
   </si>
   <si>
-    <t>qweqweer</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>sdgfsdg</t>
-  </si>
-  <si>
-    <t>asdfghasdfgh</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
-  <si>
-    <t>dasf</t>
-  </si>
-  <si>
-    <t>sdfsddasg</t>
-  </si>
-  <si>
-    <t>iamnumber10</t>
-  </si>
-  <si>
-    <t>hamode</t>
-  </si>
-  <si>
-    <t>hamode@gmail.com</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>123sd</t>
-  </si>
-  <si>
-    <t>sfsefvw</t>
-  </si>
-  <si>
-    <t>werbtrh</t>
-  </si>
-  <si>
-    <t>gfhfg</t>
-  </si>
-  <si>
     <t>test123@</t>
   </si>
   <si>
-    <t>taylor</t>
-  </si>
-  <si>
-    <t>swift</t>
-  </si>
-  <si>
-    <t>taylor@gmail.com</t>
-  </si>
-  <si>
-    <t>taylorrr</t>
-  </si>
-  <si>
-    <t>moh</t>
-  </si>
-  <si>
-    <t>moh@gmail.com</t>
-  </si>
-  <si>
-    <t>moha12</t>
+    <t>fadi12</t>
+  </si>
+  <si>
+    <t>abada12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -508,45 +444,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D788D7CC-192B-4F5D-85B5-B142119D78B6}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="18.46484375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.796875"/>
+    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.46484375" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>207527979</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -555,10 +491,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -566,127 +502,29 @@
       <c r="A3">
         <v>209315647</v>
       </c>
-      <c r="B3">
-        <v>524183083</v>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>123456789</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>123456787</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>29208154</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>123123123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3.48774647E8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{6B61DFF4-B3CD-4DA8-B084-DC939BBF8C16}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{F79C6A8D-9558-4119-82E1-E21319E761FA}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{E8A38D2D-FD8E-4C5A-B8E0-267E15D16254}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{A217F6A5-F955-4017-A5E0-759DAF4E958E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
